--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H2">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.748888867113614</v>
       </c>
       <c r="Q2">
-        <v>0.6727787208855555</v>
+        <v>1.084589400084667</v>
       </c>
       <c r="R2">
-        <v>6.055008487969999</v>
+        <v>9.761304600762001</v>
       </c>
       <c r="S2">
-        <v>0.008853420730727524</v>
+        <v>0.01417009705524306</v>
       </c>
       <c r="T2">
-        <v>0.008853420730727523</v>
+        <v>0.01417009705524305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H3">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.382702</v>
       </c>
       <c r="O3">
-        <v>0.2511111328863859</v>
+        <v>0.251111132886386</v>
       </c>
       <c r="P3">
         <v>0.2511111328863859</v>
       </c>
       <c r="Q3">
-        <v>0.2255905171011111</v>
+        <v>0.3636754195873333</v>
       </c>
       <c r="R3">
-        <v>2.03031465391</v>
+        <v>3.273078776286</v>
       </c>
       <c r="S3">
-        <v>0.002968654772745503</v>
+        <v>0.004751398079085478</v>
       </c>
       <c r="T3">
-        <v>0.002968654772745502</v>
+        <v>0.004751398079085476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.33575</v>
       </c>
       <c r="I4">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J4">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>13.4753585655</v>
       </c>
       <c r="S4">
-        <v>0.01970319597649018</v>
+        <v>0.01956164124951391</v>
       </c>
       <c r="T4">
-        <v>0.01970319597649018</v>
+        <v>0.0195616412495139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.33575</v>
       </c>
       <c r="I5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,22 +744,22 @@
         <v>3.382702</v>
       </c>
       <c r="O5">
-        <v>0.2511111328863859</v>
+        <v>0.251111132886386</v>
       </c>
       <c r="P5">
         <v>0.2511111328863859</v>
       </c>
       <c r="Q5">
-        <v>0.5020493551666666</v>
+        <v>0.5020493551666667</v>
       </c>
       <c r="R5">
         <v>4.5184441965</v>
       </c>
       <c r="S5">
-        <v>0.006606710395106349</v>
+        <v>0.006559245451484692</v>
       </c>
       <c r="T5">
-        <v>0.006606710395106346</v>
+        <v>0.006559245451484689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>48.833895</v>
       </c>
       <c r="I6">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J6">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,10 +818,10 @@
         <v>492.64775989143</v>
       </c>
       <c r="S6">
-        <v>0.7203322504063965</v>
+        <v>0.7151571288088572</v>
       </c>
       <c r="T6">
-        <v>0.7203322504063964</v>
+        <v>0.7151571288088571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>48.833895</v>
       </c>
       <c r="I7">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J7">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,7 +868,7 @@
         <v>3.382702</v>
       </c>
       <c r="O7">
-        <v>0.2511111328863859</v>
+        <v>0.251111132886386</v>
       </c>
       <c r="P7">
         <v>0.2511111328863859</v>
@@ -880,10 +880,10 @@
         <v>165.19051428429</v>
       </c>
       <c r="S7">
-        <v>0.2415357677185341</v>
+        <v>0.2398004893558158</v>
       </c>
       <c r="T7">
-        <v>0.241535767718534</v>
+        <v>0.2398004893558158</v>
       </c>
     </row>
   </sheetData>
